--- a/src/test/java/resource/Data.xlsx
+++ b/src/test/java/resource/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DangNhap" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="222">
   <si>
     <t>email</t>
   </si>
@@ -102,21 +102,12 @@
     <t>birthDay</t>
   </si>
   <si>
-    <t>annguyenr5@grr.la</t>
-  </si>
-  <si>
-    <t>annguyenr6@grr.la</t>
-  </si>
-  <si>
     <t>Nguyen</t>
   </si>
   <si>
     <t>0987654321</t>
   </si>
   <si>
-    <t>nhi.nguyen@grr.la</t>
-  </si>
-  <si>
     <t>Password1!</t>
   </si>
   <si>
@@ -126,9 +117,6 @@
     <t>0912345678</t>
   </si>
   <si>
-    <t>minh.tran@grr.la</t>
-  </si>
-  <si>
     <t>Password2@</t>
   </si>
   <si>
@@ -141,9 +129,6 @@
     <t>0934567890</t>
   </si>
   <si>
-    <t>linh.pham@grr.la</t>
-  </si>
-  <si>
     <t>Password3#</t>
   </si>
   <si>
@@ -153,9 +138,6 @@
     <t>Le</t>
   </si>
   <si>
-    <t>ha.le@grr.la</t>
-  </si>
-  <si>
     <t>Password4$</t>
   </si>
   <si>
@@ -180,9 +162,6 @@
     <t>0961112233</t>
   </si>
   <si>
-    <t>phong.vo@grr.la</t>
-  </si>
-  <si>
     <t>Password6^</t>
   </si>
   <si>
@@ -192,9 +171,6 @@
     <t>0952223344</t>
   </si>
   <si>
-    <t>tuan.nguyen@grr.la</t>
-  </si>
-  <si>
     <t>Password7*</t>
   </si>
   <si>
@@ -228,9 +204,6 @@
     <t>0925556677</t>
   </si>
   <si>
-    <t>my.dang@grr.la</t>
-  </si>
-  <si>
     <t>Password10&amp;</t>
   </si>
   <si>
@@ -261,18 +234,12 @@
     <t>blankToken</t>
   </si>
   <si>
-    <t>tram.pham2@grr.la</t>
-  </si>
-  <si>
     <t>Hoa</t>
   </si>
   <si>
     <t>1234abcd</t>
   </si>
   <si>
-    <t>hoa01@grr.la</t>
-  </si>
-  <si>
     <t>Abc123</t>
   </si>
   <si>
@@ -285,21 +252,12 @@
     <t>0905123456</t>
   </si>
   <si>
-    <t>linh01grr.la</t>
-  </si>
-  <si>
-    <t>minh01@grr.la</t>
-  </si>
-  <si>
     <t>abc</t>
   </si>
   <si>
     <t>Hanh</t>
   </si>
   <si>
-    <t>hanh01@grr.la</t>
-  </si>
-  <si>
     <t>Abc124</t>
   </si>
   <si>
@@ -312,9 +270,6 @@
     <t>invalidToken</t>
   </si>
   <si>
-    <t>hieu.hoang3@grr.la</t>
-  </si>
-  <si>
     <t>Hành động</t>
   </si>
   <si>
@@ -606,12 +561,6 @@
     <t>1 giờ 32 phút</t>
   </si>
   <si>
-    <t>Mỹ + 1</t>
-  </si>
-  <si>
-    <t>Minions: Sự Trỗi Dậy Của Gru + 1</t>
-  </si>
-  <si>
     <t>Kyle Balda +1</t>
   </si>
   <si>
@@ -619,6 +568,132 @@
   </si>
   <si>
     <t>Steve Carell +1</t>
+  </si>
+  <si>
+    <t>nhi.nguyen1@grr.la</t>
+  </si>
+  <si>
+    <t>minh.tran1@grr.la</t>
+  </si>
+  <si>
+    <t>linh.pham1@grr.la</t>
+  </si>
+  <si>
+    <t>ha.le1@grr.la</t>
+  </si>
+  <si>
+    <t>phong.vo1@grr.la</t>
+  </si>
+  <si>
+    <t>tuan.nguyen1@grr.la</t>
+  </si>
+  <si>
+    <t>my.dang1@grr.la</t>
+  </si>
+  <si>
+    <t>hoa011@grr.la</t>
+  </si>
+  <si>
+    <t>linh011grr.la</t>
+  </si>
+  <si>
+    <t>minh011@grr.la</t>
+  </si>
+  <si>
+    <t>hanh011@grr.la</t>
+  </si>
+  <si>
+    <t>deleteMovieName</t>
+  </si>
+  <si>
+    <t>deleteNation</t>
+  </si>
+  <si>
+    <t>deleteDirector</t>
+  </si>
+  <si>
+    <t>deleteProducer</t>
+  </si>
+  <si>
+    <t>deleteActor</t>
+  </si>
+  <si>
+    <t>deleteAll</t>
+  </si>
+  <si>
+    <t>deleteTimeSlot</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda 4</t>
+  </si>
+  <si>
+    <t>01:34:00</t>
+  </si>
+  <si>
+    <t>Mike Mitchell</t>
+  </si>
+  <si>
+    <t>DreamWorks</t>
+  </si>
+  <si>
+    <t>Jack Black</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_inKs4eeHiI</t>
+  </si>
+  <si>
+    <t>Hành động, hài hước, phù hợp gia đình</t>
+  </si>
+  <si>
+    <t>D:\PhotoData\kungfupanda4.jpg</t>
+  </si>
+  <si>
+    <t>dataTest</t>
+  </si>
+  <si>
+    <t>Nhà Bà Nữ</t>
+  </si>
+  <si>
+    <t>D:\PhotoData\NhaBaNu.jpg</t>
+  </si>
+  <si>
+    <t>Việt Nam</t>
+  </si>
+  <si>
+    <t>01:40:00</t>
+  </si>
+  <si>
+    <t>Trấn Thành</t>
+  </si>
+  <si>
+    <t>Trấn Thành Town</t>
+  </si>
+  <si>
+    <t>Lê Giang, Uyển Ân</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KLwTtLw_NGU</t>
+  </si>
+  <si>
+    <t>Hài hước, tâm lý gia đình Việt Nam</t>
+  </si>
+  <si>
+    <t>Gia đình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mỹ </t>
+  </si>
+  <si>
+    <t>annguyenr153@grr.la</t>
+  </si>
+  <si>
+    <t>annguyenr163@grr.la</t>
+  </si>
+  <si>
+    <t>tram.pham223@grr.la</t>
+  </si>
+  <si>
+    <t>hieu.hoang133@grr.la</t>
   </si>
 </sst>
 </file>
@@ -628,7 +703,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +734,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -681,7 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -704,6 +787,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1102,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1249,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="G2" s="3">
         <v>12345678</v>
@@ -1169,7 +1258,7 @@
         <v>12345678</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1186,7 +1275,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>22</v>
@@ -1198,134 +1287,134 @@
         <v>12345678</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4">
         <v>37226</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4">
         <v>36242</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4">
         <v>37467</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
+      <c r="E7" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4">
         <v>36784</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>7</v>
@@ -1333,25 +1422,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4">
         <v>36078</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>8</v>
@@ -1359,143 +1448,143 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4">
         <v>35789</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I11" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4">
         <v>37816</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C13" s="4">
         <v>34732</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4">
         <v>37226</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C15" s="4">
         <v>37226</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1503,28 +1592,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4">
         <v>37226</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -1532,31 +1621,31 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4">
         <v>37226</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1573,7 +1662,10 @@
         <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>24</v>
+        <v>218</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="G18" s="3">
         <v>12345678</v>
@@ -1582,36 +1674,36 @@
         <v>12345678</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4">
         <v>35296</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1619,8 +1711,18 @@
     <hyperlink ref="E12" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="E18" r:id="rId4"/>
-    <hyperlink ref="E19" r:id="rId5"/>
+    <hyperlink ref="E19" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="E5" r:id="rId6"/>
+    <hyperlink ref="E6" r:id="rId7"/>
+    <hyperlink ref="E7" r:id="rId8"/>
+    <hyperlink ref="E9" r:id="rId9"/>
+    <hyperlink ref="E10" r:id="rId10"/>
+    <hyperlink ref="E13" r:id="rId11"/>
+    <hyperlink ref="E14" r:id="rId12"/>
+    <hyperlink ref="E16" r:id="rId13"/>
+    <hyperlink ref="E17" r:id="rId14"/>
+    <hyperlink ref="E18" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1644,57 +1746,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1704,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,34 +1826,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>4</v>
@@ -1759,350 +1861,384 @@
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="9" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="K6" s="6" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>172</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="8" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>190</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="I4" r:id="rId2"/>
-    <hyperlink ref="I5" r:id="rId3"/>
-    <hyperlink ref="I6" r:id="rId4"/>
-    <hyperlink ref="I7" r:id="rId5"/>
-    <hyperlink ref="I8" r:id="rId6"/>
-    <hyperlink ref="I9" r:id="rId7"/>
-    <hyperlink ref="I10" r:id="rId8"/>
-    <hyperlink ref="I12" r:id="rId9"/>
+    <hyperlink ref="I4" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+    <hyperlink ref="I6" r:id="rId3"/>
+    <hyperlink ref="I7" r:id="rId4"/>
+    <hyperlink ref="I8" r:id="rId5"/>
+    <hyperlink ref="I9" r:id="rId6"/>
+    <hyperlink ref="I10" r:id="rId7"/>
+    <hyperlink ref="I12" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2110,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,34 +2266,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>4</v>
@@ -2165,276 +2301,340 @@
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>144</v>
-      </c>
+      <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="9" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>170</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="6" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>174</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K7" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>119</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>120</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>206</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2445,6 +2645,8 @@
     <hyperlink ref="I7" r:id="rId5"/>
     <hyperlink ref="I8" r:id="rId6"/>
     <hyperlink ref="I9" r:id="rId7"/>
+    <hyperlink ref="I11" r:id="rId8"/>
+    <hyperlink ref="I12" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
